--- a/output/XP_25224843000100.xlsx
+++ b/output/XP_25224843000100.xlsx
@@ -966,10 +966,10 @@
         <v>44165</v>
       </c>
       <c r="B53">
-        <v>0.7702230400000001</v>
+        <v>0.7771256600000001</v>
       </c>
       <c r="C53">
-        <v>0.1055328676820222</v>
+        <v>0.1098436653107318</v>
       </c>
     </row>
   </sheetData>

--- a/output/XP_25224843000100.xlsx
+++ b/output/XP_25224843000100.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>XP LONG BIASED 30 FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,590 +383,434 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42613</v>
       </c>
       <c r="B2">
-        <v>0.007836570000000043</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42643</v>
       </c>
       <c r="B3">
-        <v>0.02248443999999994</v>
-      </c>
-      <c r="C3">
         <v>0.01453397349929464</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42674</v>
       </c>
       <c r="B4">
-        <v>0.1257952600000001</v>
-      </c>
-      <c r="C4">
         <v>0.1010390143443163</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42704</v>
       </c>
       <c r="B5">
-        <v>0.0816982799999999</v>
-      </c>
-      <c r="C5">
         <v>-0.03916962663353207</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42735</v>
       </c>
       <c r="B6">
-        <v>0.08012365999999993</v>
-      </c>
-      <c r="C6">
         <v>-0.001455692432089317</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42766</v>
       </c>
       <c r="B7">
-        <v>0.1671009000000001</v>
-      </c>
-      <c r="C7">
         <v>0.08052526133905835</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42794</v>
       </c>
       <c r="B8">
-        <v>0.18478404</v>
-      </c>
-      <c r="C8">
         <v>0.01515133781492239</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42825</v>
       </c>
       <c r="B9">
-        <v>0.13253454</v>
-      </c>
-      <c r="C9">
         <v>-0.04410044213627329</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42855</v>
       </c>
       <c r="B10">
-        <v>0.1055631699999999</v>
-      </c>
-      <c r="C10">
         <v>-0.02381505291662012</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42886</v>
       </c>
       <c r="B11">
-        <v>0.08505706000000002</v>
-      </c>
-      <c r="C11">
         <v>-0.01854811245204546</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42916</v>
       </c>
       <c r="B12">
-        <v>0.12258287</v>
-      </c>
-      <c r="C12">
         <v>0.0345841812226908</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42947</v>
       </c>
       <c r="B13">
-        <v>0.1557883900000001</v>
-      </c>
-      <c r="C13">
         <v>0.02957957126140731</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42978</v>
       </c>
       <c r="B14">
-        <v>0.2354464700000001</v>
-      </c>
-      <c r="C14">
         <v>0.06892098994003559</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43008</v>
       </c>
       <c r="B15">
-        <v>0.2823744800000001</v>
-      </c>
-      <c r="C15">
         <v>0.03798465667233653</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43039</v>
       </c>
       <c r="B16">
-        <v>0.2806042099999999</v>
-      </c>
-      <c r="C16">
         <v>-0.001380462593110976</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43069</v>
       </c>
       <c r="B17">
-        <v>0.2101182100000001</v>
-      </c>
-      <c r="C17">
         <v>-0.05504120590076755</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43100</v>
       </c>
       <c r="B18">
-        <v>0.2898193200000001</v>
-      </c>
-      <c r="C18">
         <v>0.06586225158945425</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43131</v>
       </c>
       <c r="B19">
-        <v>0.4064967100000001</v>
-      </c>
-      <c r="C19">
         <v>0.09046025919351242</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43159</v>
       </c>
       <c r="B20">
-        <v>0.4424237200000001</v>
-      </c>
-      <c r="C20">
         <v>0.02554361467365251</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43190</v>
       </c>
       <c r="B21">
-        <v>0.4966067000000001</v>
-      </c>
-      <c r="C21">
         <v>0.03756384427732518</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43220</v>
       </c>
       <c r="B22">
-        <v>0.5427087399999999</v>
-      </c>
-      <c r="C22">
         <v>0.03080437899950583</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43251</v>
       </c>
       <c r="B23">
-        <v>0.48072206</v>
-      </c>
-      <c r="C23">
         <v>-0.04018041668707983</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43281</v>
       </c>
       <c r="B24">
-        <v>0.45583737</v>
-      </c>
-      <c r="C24">
         <v>-0.01680578055276627</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43312</v>
       </c>
       <c r="B25">
-        <v>0.54153243</v>
-      </c>
-      <c r="C25">
         <v>0.05886307204766972</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43343</v>
       </c>
       <c r="B26">
-        <v>0.4276134700000001</v>
-      </c>
-      <c r="C26">
         <v>-0.07389981409602908</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43373</v>
       </c>
       <c r="B27">
-        <v>0.4332619499999999</v>
-      </c>
-      <c r="C27">
         <v>0.003956589173958802</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43404</v>
       </c>
       <c r="B28">
-        <v>0.63286445</v>
-      </c>
-      <c r="C28">
         <v>0.1392644938351988</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43434</v>
       </c>
       <c r="B29">
-        <v>0.66278079</v>
-      </c>
-      <c r="C29">
         <v>0.01832138607708678</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43465</v>
       </c>
       <c r="B30">
-        <v>0.6800401700000001</v>
-      </c>
-      <c r="C30">
         <v>0.0103798288408179</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43496</v>
       </c>
       <c r="B31">
-        <v>0.81984006</v>
-      </c>
-      <c r="C31">
         <v>0.08321223057422489</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43524</v>
       </c>
       <c r="B32">
-        <v>0.793636</v>
-      </c>
-      <c r="C32">
         <v>-0.01439910054513249</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43555</v>
       </c>
       <c r="B33">
-        <v>0.7558027300000001</v>
-      </c>
-      <c r="C33">
         <v>-0.02109305901531855</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43585</v>
       </c>
       <c r="B34">
-        <v>0.78906254</v>
-      </c>
-      <c r="C34">
         <v>0.01894279433088708</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43616</v>
       </c>
       <c r="B35">
-        <v>0.8246624600000001</v>
-      </c>
-      <c r="C35">
         <v>0.01989864479527936</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43646</v>
       </c>
       <c r="B36">
-        <v>0.8887837999999999</v>
-      </c>
-      <c r="C36">
         <v>0.03514148035905773</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43677</v>
       </c>
       <c r="B37">
-        <v>0.9062003199999999</v>
-      </c>
-      <c r="C37">
         <v>0.009221023602595579</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43708</v>
       </c>
       <c r="B38">
-        <v>0.93346499</v>
-      </c>
-      <c r="C38">
         <v>0.01430315046846697</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43738</v>
       </c>
       <c r="B39">
-        <v>0.9612841400000001</v>
-      </c>
-      <c r="C39">
         <v>0.01438823570319725</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43769</v>
       </c>
       <c r="B40">
-        <v>0.9818003900000001</v>
-      </c>
-      <c r="C40">
         <v>0.01046062096846412</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43799</v>
       </c>
       <c r="B41">
-        <v>1.03164914</v>
-      </c>
-      <c r="C41">
         <v>0.02515326480483737</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43830</v>
       </c>
       <c r="B42">
-        <v>1.19165897</v>
-      </c>
-      <c r="C42">
         <v>0.07875859411433628</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43861</v>
       </c>
       <c r="B43">
-        <v>1.26976715</v>
-      </c>
-      <c r="C43">
         <v>0.03563883846399674</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43890</v>
       </c>
       <c r="B44">
-        <v>1.12369125</v>
-      </c>
-      <c r="C44">
         <v>-0.06435721831642516</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>0.1940180300000001</v>
-      </c>
-      <c r="C45">
         <v>-0.4377628904389939</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43951</v>
       </c>
       <c r="B46">
-        <v>0.3846795199999999</v>
-      </c>
-      <c r="C46">
         <v>0.1596805786927689</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43982</v>
       </c>
       <c r="B47">
-        <v>0.51664216</v>
-      </c>
-      <c r="C47">
         <v>0.09530193672540199</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>44012</v>
       </c>
       <c r="B48">
-        <v>0.61844112</v>
-      </c>
-      <c r="C48">
         <v>0.06712127796843004</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>44043</v>
       </c>
       <c r="B49">
-        <v>0.7857185600000001</v>
-      </c>
-      <c r="C49">
         <v>0.1033571366501118</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>44074</v>
       </c>
       <c r="B50">
-        <v>0.78153023</v>
-      </c>
-      <c r="C50">
         <v>-0.002345459185908894</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>44104</v>
       </c>
       <c r="B51">
-        <v>0.64252585</v>
-      </c>
-      <c r="C51">
         <v>-0.07802527156668004</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>44135</v>
       </c>
       <c r="B52">
-        <v>0.60123963</v>
-      </c>
-      <c r="C52">
         <v>-0.02513581140899546</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>44165</v>
       </c>
       <c r="B53">
-        <v>0.7771256600000001</v>
-      </c>
-      <c r="C53">
-        <v>0.1098436653107318</v>
+        <v>0.07760448696863698</v>
       </c>
     </row>
   </sheetData>
